--- a/leetCode/leetcode列表.xlsx
+++ b/leetCode/leetcode列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28380" windowHeight="9340"/>
+    <workbookView windowWidth="28380" windowHeight="9980"/>
   </bookViews>
   <sheets>
     <sheet name="题目列表" sheetId="12" r:id="rId1"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS!$A$1:$C$209</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目列表!$A$5:$C$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目列表!$A$5:$C$151</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>题号</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">移动零 </t>
     </r>
     <r>
@@ -51,6 +57,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">待完成 </t>
     </r>
     <r>
@@ -62,6 +74,23 @@
       </rPr>
       <t>❌</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">颜色分类 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+  </si>
+  <si>
+    <t>2022.4.22～4.23</t>
   </si>
   <si>
     <t>频率</t>
@@ -80,8 +109,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -105,24 +134,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,13 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -171,17 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,29 +213,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,6 +240,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
@@ -281,19 +310,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,12 +430,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,127 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +557,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -548,17 +586,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,37 +627,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,145 +649,145 @@
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1220,36 +1249,50 @@
       <c r="C7" s="6"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="6">
+        <v>75</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="6">
+        <v>88</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="6">
+        <v>215</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
+    <row r="11" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
+    <row r="12" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="51" customHeight="1" spans="1:3">
+    <row r="13" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+    <row r="14" s="1" customFormat="1" ht="51" customHeight="1" spans="1:3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
@@ -1284,22 +1327,22 @@
       <c r="B20" s="7"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+    <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="45" customHeight="1" spans="1:3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+    <row r="22" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="45" customHeight="1" spans="1:3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -1379,17 +1422,17 @@
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="44" customHeight="1" spans="1:3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="55" customHeight="1" spans="1:3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+    <row r="40" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="44" customHeight="1" spans="1:3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="55" customHeight="1" spans="1:3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="6"/>
@@ -1404,7 +1447,7 @@
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="41" customHeight="1" spans="1:3">
+    <row r="45" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="6"/>
@@ -1419,42 +1462,42 @@
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="67" customHeight="1" spans="1:3">
+    <row r="48" s="1" customFormat="1" ht="41" customHeight="1" spans="1:3">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="38" customHeight="1" spans="1:3">
+    <row r="49" s="1" customFormat="1" ht="67" customHeight="1" spans="1:3">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="41" customHeight="1" spans="1:3">
+    <row r="50" s="1" customFormat="1" ht="38" customHeight="1" spans="1:3">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="34" customHeight="1" spans="1:3">
+    <row r="51" s="1" customFormat="1" ht="41" customHeight="1" spans="1:3">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="41" customHeight="1" spans="1:3">
+    <row r="52" s="1" customFormat="1" ht="34" customHeight="1" spans="1:3">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="60" customHeight="1" spans="1:3">
+    <row r="53" s="1" customFormat="1" ht="41" customHeight="1" spans="1:3">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="94" customHeight="1" spans="1:3">
+    <row r="54" s="1" customFormat="1" ht="60" customHeight="1" spans="1:3">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+    <row r="55" s="1" customFormat="1" ht="94" customHeight="1" spans="1:3">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
@@ -1504,22 +1547,22 @@
       <c r="B64" s="7"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
+    <row r="65" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" s="2" customFormat="1" ht="44" customHeight="1" spans="1:3">
-      <c r="A66" s="9"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="9"/>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+    <row r="66" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="44" customHeight="1" spans="1:3">
+      <c r="A67" s="9"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="6"/>
@@ -1559,12 +1602,12 @@
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+    <row r="76" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+    <row r="77" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="6"/>
@@ -1584,40 +1627,40 @@
       <c r="B80" s="7"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
+    <row r="81" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" s="2" customFormat="1" ht="48" customHeight="1" spans="1:3">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="9"/>
-    </row>
-    <row r="83" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="6"/>
+    <row r="82" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="48" customHeight="1" spans="1:3">
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+    <row r="85" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" s="2" customFormat="1" ht="44" customHeight="1" spans="1:3">
-      <c r="A86" s="9"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="9"/>
-    </row>
-    <row r="87" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="6"/>
+    <row r="86" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="44" customHeight="1" spans="1:3">
+      <c r="A87" s="9"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A88" s="6"/>
@@ -1729,15 +1772,15 @@
       <c r="B109" s="7"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" s="2" customFormat="1" ht="41" customHeight="1" spans="1:3">
-      <c r="A110" s="9"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="9"/>
-    </row>
-    <row r="111" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A111" s="6"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="6"/>
+    <row r="110" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A110" s="6"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="6"/>
+    </row>
+    <row r="111" s="2" customFormat="1" ht="41" customHeight="1" spans="1:3">
+      <c r="A111" s="9"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="9"/>
     </row>
     <row r="112" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A112" s="6"/>
@@ -1769,27 +1812,27 @@
       <c r="B117" s="7"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" s="2" customFormat="1" ht="41" customHeight="1" spans="1:3">
-      <c r="A118" s="9"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
-      <c r="A119" s="6"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="6"/>
+    <row r="118" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A118" s="6"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="6"/>
+    </row>
+    <row r="119" s="2" customFormat="1" ht="41" customHeight="1" spans="1:3">
+      <c r="A119" s="9"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="9"/>
     </row>
     <row r="120" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" s="1" customFormat="1" ht="53" customHeight="1" spans="1:3">
+    <row r="121" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+    <row r="122" s="1" customFormat="1" ht="53" customHeight="1" spans="1:3">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="6"/>
@@ -1854,20 +1897,20 @@
       <c r="B134" s="7"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" s="1" customFormat="1" ht="37" customHeight="1" spans="1:3">
+    <row r="135" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" s="2" customFormat="1" ht="39" customHeight="1" spans="1:3">
-      <c r="A136" s="9"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
-      <c r="A137" s="6"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="6"/>
+    <row r="136" s="1" customFormat="1" ht="37" customHeight="1" spans="1:3">
+      <c r="A136" s="6"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="6"/>
+    </row>
+    <row r="137" s="2" customFormat="1" ht="39" customHeight="1" spans="1:3">
+      <c r="A137" s="9"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="9"/>
     </row>
     <row r="138" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
       <c r="A138" s="6"/>
@@ -1884,15 +1927,15 @@
       <c r="B140" s="7"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" s="2" customFormat="1" ht="43" customHeight="1" spans="1:3">
-      <c r="A141" s="9"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A142" s="6"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="6"/>
+    <row r="141" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A141" s="6"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="6"/>
+    </row>
+    <row r="142" s="2" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="A142" s="9"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="9"/>
     </row>
     <row r="143" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A143" s="6"/>
@@ -1904,15 +1947,15 @@
       <c r="B144" s="7"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
+    <row r="145" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="8"/>
-    </row>
-    <row r="146" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+      <c r="C145" s="6"/>
+    </row>
+    <row r="146" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
-      <c r="C146" s="12"/>
+      <c r="C146" s="8"/>
     </row>
     <row r="147" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
       <c r="A147" s="6"/>
@@ -1934,7 +1977,12 @@
       <c r="B150" s="7"/>
       <c r="C150" s="12"/>
     </row>
-    <row r="151" ht="34" customHeight="1"/>
+    <row r="151" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+      <c r="A151" s="6"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="12"/>
+    </row>
+    <row r="152" ht="34" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1961,7 +2009,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1975,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -1984,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/leetCode/leetcode列表.xlsx
+++ b/leetCode/leetcode列表.xlsx
@@ -12,19 +12,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS!$A$1:$C$209</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目列表!$A$5:$C$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目列表!$A$5:$D$147</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>题号</t>
   </si>
   <si>
     <t>内容</t>
+  </si>
+  <si>
+    <t>时间</t>
   </si>
   <si>
     <t>其他/备注</t>
@@ -57,26 +60,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">待完成 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>❌</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">颜色分类 </t>
     </r>
     <r>
@@ -93,6 +76,26 @@
     <t>2022.4.22～4.23</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">两数之和II  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+  </si>
+  <si>
+    <t>2022.4.24～4.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">双指针碰撞法 </t>
+  </si>
+  <si>
     <t>频率</t>
   </si>
   <si>
@@ -107,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -134,14 +137,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,14 +167,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,21 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -218,14 +206,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,7 +229,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,9 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +272,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="方正书宋_GBK"/>
@@ -310,13 +313,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,13 +337,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,25 +421,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,109 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,13 +589,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,17 +619,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,85 +649,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,7 +736,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,28 +748,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,23 +778,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,6 +832,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1177,812 +1192,934 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.3846153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.0192307692308" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.2211538461538" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="41.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1153846153846" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.2211538461538" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C2" s="13"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C3" s="13"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A4" s="4">
         <v>238</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A5" s="6">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A6" s="6">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A8" s="6">
-        <v>75</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A9" s="6">
-        <v>88</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A10" s="6">
-        <v>215</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C7" s="14"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="29" customHeight="1" spans="1:4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="51" customHeight="1" spans="1:4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
+      <c r="C11" s="14"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
+      <c r="C12" s="14"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="51" customHeight="1" spans="1:3">
+      <c r="C13" s="14"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+      <c r="C14" s="14"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+      <c r="C15" s="14"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+      <c r="C16" s="14"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+      <c r="C17" s="14"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+      <c r="C18" s="14"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="45" customHeight="1" spans="1:4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="39" customHeight="1" spans="1:4">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+      <c r="C20" s="14"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C21" s="14"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="45" customHeight="1" spans="1:3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
+      <c r="C22" s="14"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C24" s="14"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C25" s="14"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C26" s="14"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C27" s="14"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C28" s="14"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C29" s="14"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C30" s="14"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C31" s="14"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C32" s="14"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C33" s="14"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C34" s="14"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C35" s="14"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C36" s="14"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="55" customHeight="1" spans="1:4">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C38" s="14"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C39" s="14"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="44" customHeight="1" spans="1:3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="55" customHeight="1" spans="1:3">
+      <c r="C40" s="14"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C42" s="14"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C43" s="14"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C44" s="14"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="67" customHeight="1" spans="1:4">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="41" customHeight="1" spans="1:3">
+      <c r="C45" s="14"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="38" customHeight="1" spans="1:4">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="41" customHeight="1" spans="1:3">
+      <c r="C46" s="14"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="41" customHeight="1" spans="1:3">
+      <c r="C47" s="14"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="67" customHeight="1" spans="1:3">
+      <c r="C48" s="14"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="38" customHeight="1" spans="1:3">
+      <c r="C49" s="14"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="60" customHeight="1" spans="1:4">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="41" customHeight="1" spans="1:3">
+      <c r="C50" s="14"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="94" customHeight="1" spans="1:4">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="34" customHeight="1" spans="1:3">
+      <c r="C51" s="14"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="41" customHeight="1" spans="1:3">
+      <c r="C52" s="14"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="60" customHeight="1" spans="1:3">
+      <c r="C53" s="14"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="94" customHeight="1" spans="1:3">
+      <c r="C54" s="14"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C55" s="14"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C56" s="14"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C57" s="14"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C58" s="14"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C59" s="14"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C60" s="14"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C61" s="14"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C62" s="14"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="A63" s="9"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C64" s="14"/>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
+      <c r="C65" s="14"/>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="44" customHeight="1" spans="1:3">
-      <c r="A67" s="9"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="9"/>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="C66" s="14"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C68" s="14"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="6"/>
-    </row>
-    <row r="70" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C69" s="14"/>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="6"/>
-    </row>
-    <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C70" s="14"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="6"/>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C71" s="14"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C72" s="14"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C73" s="14"/>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C74" s="14"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C75" s="14"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
-      <c r="C76" s="6"/>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+      <c r="C76" s="14"/>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
-      <c r="C77" s="6"/>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C77" s="14"/>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="42" customHeight="1" spans="1:4">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="6"/>
-    </row>
-    <row r="80" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C78" s="14"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="48" customHeight="1" spans="1:4">
+      <c r="A79" s="9"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="6"/>
-    </row>
-    <row r="81" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C80" s="14"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="6"/>
-    </row>
-    <row r="82" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
+      <c r="C81" s="14"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="6"/>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="48" customHeight="1" spans="1:3">
+      <c r="C82" s="14"/>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A83" s="9"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="9"/>
-    </row>
-    <row r="84" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="B83" s="11"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="6"/>
-    </row>
-    <row r="85" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C84" s="14"/>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="6"/>
-    </row>
-    <row r="86" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C85" s="14"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="6"/>
-    </row>
-    <row r="87" s="2" customFormat="1" ht="44" customHeight="1" spans="1:3">
-      <c r="A87" s="9"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="9"/>
-    </row>
-    <row r="88" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C86" s="14"/>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A87" s="6"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="6"/>
-    </row>
-    <row r="89" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C88" s="14"/>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="6"/>
-    </row>
-    <row r="90" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C89" s="14"/>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="6"/>
-    </row>
-    <row r="91" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C90" s="14"/>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="6"/>
-    </row>
-    <row r="92" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C91" s="14"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="6"/>
-    </row>
-    <row r="93" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C92" s="14"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="6"/>
-    </row>
-    <row r="94" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C93" s="14"/>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="6"/>
-    </row>
-    <row r="95" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C94" s="14"/>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
-      <c r="C95" s="6"/>
-    </row>
-    <row r="96" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C95" s="14"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="6"/>
-    </row>
-    <row r="97" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C96" s="14"/>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
-      <c r="C97" s="6"/>
-    </row>
-    <row r="98" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C97" s="14"/>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
-      <c r="C98" s="6"/>
-    </row>
-    <row r="99" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C98" s="14"/>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
-      <c r="C99" s="6"/>
-    </row>
-    <row r="100" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C99" s="14"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="6"/>
-    </row>
-    <row r="101" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C100" s="14"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
-      <c r="C101" s="6"/>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C101" s="14"/>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="6"/>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C102" s="14"/>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="6"/>
-    </row>
-    <row r="104" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C103" s="14"/>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="6"/>
-    </row>
-    <row r="105" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C104" s="14"/>
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
-      <c r="C105" s="6"/>
-    </row>
-    <row r="106" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C105" s="14"/>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
-      <c r="C106" s="6"/>
-    </row>
-    <row r="107" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A107" s="6"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="6"/>
-    </row>
-    <row r="108" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C106" s="14"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" s="2" customFormat="1" ht="41" customHeight="1" spans="1:4">
+      <c r="A107" s="9"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="9"/>
+    </row>
+    <row r="108" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="6"/>
-    </row>
-    <row r="109" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C108" s="14"/>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
-      <c r="C109" s="6"/>
-    </row>
-    <row r="110" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C109" s="14"/>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
-      <c r="C110" s="6"/>
-    </row>
-    <row r="111" s="2" customFormat="1" ht="41" customHeight="1" spans="1:3">
-      <c r="A111" s="9"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="9"/>
-    </row>
-    <row r="112" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C110" s="14"/>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A111" s="6"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
-      <c r="C112" s="6"/>
-    </row>
-    <row r="113" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C112" s="14"/>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="6"/>
-    </row>
-    <row r="114" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C113" s="14"/>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
-      <c r="C114" s="6"/>
-    </row>
-    <row r="115" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A115" s="6"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="6"/>
-    </row>
-    <row r="116" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C114" s="14"/>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" s="2" customFormat="1" ht="41" customHeight="1" spans="1:4">
+      <c r="A115" s="9"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
-      <c r="C116" s="6"/>
-    </row>
-    <row r="117" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C116" s="14"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
-      <c r="C117" s="6"/>
-    </row>
-    <row r="118" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C117" s="14"/>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" s="1" customFormat="1" ht="53" customHeight="1" spans="1:4">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
-      <c r="C118" s="6"/>
-    </row>
-    <row r="119" s="2" customFormat="1" ht="41" customHeight="1" spans="1:3">
-      <c r="A119" s="9"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C118" s="14"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="A119" s="6"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
-      <c r="C120" s="6"/>
-    </row>
-    <row r="121" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C120" s="14"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="6"/>
-    </row>
-    <row r="122" s="1" customFormat="1" ht="53" customHeight="1" spans="1:3">
+      <c r="C121" s="14"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
-      <c r="C122" s="6"/>
-    </row>
-    <row r="123" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C122" s="14"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
-      <c r="C123" s="6"/>
-    </row>
-    <row r="124" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C123" s="14"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
-      <c r="C124" s="6"/>
-    </row>
-    <row r="125" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C124" s="14"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
-      <c r="C125" s="6"/>
-    </row>
-    <row r="126" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C125" s="14"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
-      <c r="C126" s="6"/>
-    </row>
-    <row r="127" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C126" s="14"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="6"/>
-    </row>
-    <row r="128" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C127" s="14"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="6"/>
-    </row>
-    <row r="129" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C128" s="14"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
-      <c r="C129" s="6"/>
-    </row>
-    <row r="130" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C129" s="14"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="6"/>
-    </row>
-    <row r="131" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C130" s="14"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="6"/>
-    </row>
-    <row r="132" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C131" s="14"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" s="1" customFormat="1" ht="37" customHeight="1" spans="1:4">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="6"/>
-    </row>
-    <row r="133" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
-      <c r="A133" s="6"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="6"/>
-    </row>
-    <row r="134" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C132" s="14"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" s="2" customFormat="1" ht="39" customHeight="1" spans="1:4">
+      <c r="A133" s="9"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="9"/>
+    </row>
+    <row r="134" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
-      <c r="C134" s="6"/>
-    </row>
-    <row r="135" s="1" customFormat="1" ht="43" customHeight="1" spans="1:3">
+      <c r="C134" s="14"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="6"/>
-    </row>
-    <row r="136" s="1" customFormat="1" ht="37" customHeight="1" spans="1:3">
+      <c r="C135" s="14"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
-      <c r="C136" s="6"/>
-    </row>
-    <row r="137" s="2" customFormat="1" ht="39" customHeight="1" spans="1:3">
-      <c r="A137" s="9"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
-      <c r="A138" s="6"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="6"/>
-    </row>
-    <row r="139" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="C136" s="14"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
+      <c r="A137" s="6"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" s="2" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="A138" s="9"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="9"/>
+    </row>
+    <row r="139" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="6"/>
-    </row>
-    <row r="140" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="C139" s="14"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
-      <c r="C140" s="6"/>
-    </row>
-    <row r="141" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="C140" s="14"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
-      <c r="C141" s="6"/>
-    </row>
-    <row r="142" s="2" customFormat="1" ht="43" customHeight="1" spans="1:3">
-      <c r="A142" s="9"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C141" s="14"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" s="1" customFormat="1" ht="29" customHeight="1" spans="1:4">
+      <c r="A142" s="6"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
-      <c r="C143" s="6"/>
-    </row>
-    <row r="144" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C143" s="14"/>
+      <c r="D143" s="12"/>
+    </row>
+    <row r="144" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="6"/>
-    </row>
-    <row r="145" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="C144" s="14"/>
+      <c r="D144" s="12"/>
+    </row>
+    <row r="145" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="6"/>
-    </row>
-    <row r="146" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
+      <c r="C145" s="14"/>
+      <c r="D145" s="12"/>
+    </row>
+    <row r="146" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
-      <c r="C146" s="8"/>
-    </row>
-    <row r="147" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+      <c r="C146" s="14"/>
+      <c r="D146" s="12"/>
+    </row>
+    <row r="147" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
-      <c r="C147" s="12"/>
-    </row>
-    <row r="148" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
-      <c r="A148" s="6"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="12"/>
-    </row>
-    <row r="149" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
-      <c r="A149" s="6"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="12"/>
-    </row>
-    <row r="150" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
-      <c r="A150" s="6"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="12"/>
-    </row>
-    <row r="151" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
-      <c r="A151" s="6"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="12"/>
-    </row>
-    <row r="152" ht="34" customHeight="1"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="12"/>
+    </row>
+    <row r="148" ht="34" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2009,13 +2146,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -2023,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -2032,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/leetCode/leetcode列表.xlsx
+++ b/leetCode/leetcode列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>题号</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">颜色分类 </t>
     </r>
     <r>
@@ -77,6 +83,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">两数之和II  </t>
     </r>
     <r>
@@ -96,6 +108,26 @@
     <t xml:space="preserve">双指针碰撞法 </t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">长度最小的子数组  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+  </si>
+  <si>
+    <t>2022.4.25～5.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">滑动窗口法 </t>
+  </si>
+  <si>
     <t>频率</t>
   </si>
   <si>
@@ -112,8 +144,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -136,20 +168,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -158,23 +176,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,9 +191,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +223,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,45 +306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,13 +339,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,19 +393,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,37 +435,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,13 +471,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,49 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,24 +514,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,26 +582,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +599,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,17 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -644,147 +656,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,8 +816,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,18 +864,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1214,7 +1234,7 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1224,7 +1244,7 @@
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="13"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
@@ -1232,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="13"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
@@ -1242,7 +1262,7 @@
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4"/>
@@ -1254,7 +1274,7 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="6"/>
@@ -1266,7 +1286,7 @@
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1274,849 +1294,857 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="6">
+        <v>209</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="29" customHeight="1" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="51" customHeight="1" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="14"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="6"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="6"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="45" customHeight="1" spans="1:4">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="15"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="39" customHeight="1" spans="1:4">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="6"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="6"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="6"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="6"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="6"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="14"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="9"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="55" customHeight="1" spans="1:4">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="14"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="14"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="6"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="14"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="6"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="14"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="6"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="14"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="6"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="14"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="6"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="14"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="6"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="67" customHeight="1" spans="1:4">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="14"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="6"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="38" customHeight="1" spans="1:4">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="14"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="6"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="14"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="6"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="14"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="6"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="6"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="60" customHeight="1" spans="1:4">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="6"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="94" customHeight="1" spans="1:4">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="14"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="6"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="14"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="6"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="14"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="6"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="14"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="6"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="14"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="6"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="14"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="6"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="14"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="6"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="14"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="6"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
-      <c r="C59" s="14"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="6"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="14"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="6"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
-      <c r="C61" s="14"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="6"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="14"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="6"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A63" s="9"/>
       <c r="B63" s="11"/>
-      <c r="C63" s="16"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="9"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="14"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="6"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
-      <c r="C65" s="14"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="6"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="14"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="6"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="14"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="6"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="14"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="6"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="14"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="6"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="14"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="6"/>
     </row>
     <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="14"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="6"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="14"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="14"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="6"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="14"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="6"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
-      <c r="C75" s="14"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="6"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
-      <c r="C76" s="14"/>
+      <c r="C76" s="7"/>
       <c r="D76" s="6"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="6"/>
     </row>
     <row r="78" s="1" customFormat="1" ht="42" customHeight="1" spans="1:4">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="6"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="48" customHeight="1" spans="1:4">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
-      <c r="C79" s="15"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="9"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="7"/>
       <c r="D80" s="6"/>
     </row>
     <row r="81" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="6"/>
     </row>
     <row r="82" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="6"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A83" s="9"/>
       <c r="B83" s="11"/>
-      <c r="C83" s="16"/>
+      <c r="C83" s="11"/>
       <c r="D83" s="9"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="7"/>
       <c r="D84" s="6"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="14"/>
+      <c r="C85" s="7"/>
       <c r="D85" s="6"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="14"/>
+      <c r="C86" s="7"/>
       <c r="D86" s="6"/>
     </row>
     <row r="87" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="14"/>
+      <c r="C87" s="7"/>
       <c r="D87" s="6"/>
     </row>
     <row r="88" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="14"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="6"/>
     </row>
     <row r="89" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="14"/>
+      <c r="C89" s="7"/>
       <c r="D89" s="6"/>
     </row>
     <row r="90" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="14"/>
+      <c r="C90" s="7"/>
       <c r="D90" s="6"/>
     </row>
     <row r="91" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="14"/>
+      <c r="C91" s="7"/>
       <c r="D91" s="6"/>
     </row>
     <row r="92" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="14"/>
+      <c r="C92" s="7"/>
       <c r="D92" s="6"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="14"/>
+      <c r="C93" s="7"/>
       <c r="D93" s="6"/>
     </row>
     <row r="94" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="14"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="6"/>
     </row>
     <row r="95" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
-      <c r="C95" s="14"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="6"/>
     </row>
     <row r="96" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="14"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="6"/>
     </row>
     <row r="97" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
-      <c r="C97" s="14"/>
+      <c r="C97" s="7"/>
       <c r="D97" s="6"/>
     </row>
     <row r="98" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
-      <c r="C98" s="14"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="6"/>
     </row>
     <row r="99" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
-      <c r="C99" s="14"/>
+      <c r="C99" s="7"/>
       <c r="D99" s="6"/>
     </row>
     <row r="100" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="14"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="6"/>
     </row>
     <row r="101" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
-      <c r="C101" s="14"/>
+      <c r="C101" s="7"/>
       <c r="D101" s="6"/>
     </row>
     <row r="102" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="14"/>
+      <c r="C102" s="7"/>
       <c r="D102" s="6"/>
     </row>
     <row r="103" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="14"/>
+      <c r="C103" s="7"/>
       <c r="D103" s="6"/>
     </row>
     <row r="104" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="14"/>
+      <c r="C104" s="7"/>
       <c r="D104" s="6"/>
     </row>
     <row r="105" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
-      <c r="C105" s="14"/>
+      <c r="C105" s="7"/>
       <c r="D105" s="6"/>
     </row>
     <row r="106" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
-      <c r="C106" s="14"/>
+      <c r="C106" s="7"/>
       <c r="D106" s="6"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
-      <c r="C107" s="15"/>
+      <c r="C107" s="10"/>
       <c r="D107" s="9"/>
     </row>
     <row r="108" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="14"/>
+      <c r="C108" s="7"/>
       <c r="D108" s="6"/>
     </row>
     <row r="109" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
-      <c r="C109" s="14"/>
+      <c r="C109" s="7"/>
       <c r="D109" s="6"/>
     </row>
     <row r="110" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
-      <c r="C110" s="14"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="6"/>
     </row>
     <row r="111" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
-      <c r="C111" s="14"/>
+      <c r="C111" s="7"/>
       <c r="D111" s="6"/>
     </row>
     <row r="112" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
-      <c r="C112" s="14"/>
+      <c r="C112" s="7"/>
       <c r="D112" s="6"/>
     </row>
     <row r="113" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="14"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="6"/>
     </row>
     <row r="114" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
-      <c r="C114" s="14"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="6"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A115" s="9"/>
       <c r="B115" s="11"/>
-      <c r="C115" s="16"/>
+      <c r="C115" s="11"/>
       <c r="D115" s="9"/>
     </row>
     <row r="116" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
-      <c r="C116" s="14"/>
+      <c r="C116" s="7"/>
       <c r="D116" s="6"/>
     </row>
     <row r="117" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
-      <c r="C117" s="14"/>
+      <c r="C117" s="7"/>
       <c r="D117" s="6"/>
     </row>
     <row r="118" s="1" customFormat="1" ht="53" customHeight="1" spans="1:4">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
-      <c r="C118" s="14"/>
+      <c r="C118" s="7"/>
       <c r="D118" s="6"/>
     </row>
     <row r="119" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
-      <c r="C119" s="14"/>
+      <c r="C119" s="7"/>
       <c r="D119" s="6"/>
     </row>
     <row r="120" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
-      <c r="C120" s="14"/>
+      <c r="C120" s="7"/>
       <c r="D120" s="6"/>
     </row>
     <row r="121" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="14"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="6"/>
     </row>
     <row r="122" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
-      <c r="C122" s="14"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="6"/>
     </row>
     <row r="123" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
-      <c r="C123" s="14"/>
+      <c r="C123" s="7"/>
       <c r="D123" s="6"/>
     </row>
     <row r="124" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
-      <c r="C124" s="14"/>
+      <c r="C124" s="7"/>
       <c r="D124" s="6"/>
     </row>
     <row r="125" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
-      <c r="C125" s="14"/>
+      <c r="C125" s="7"/>
       <c r="D125" s="6"/>
     </row>
     <row r="126" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
-      <c r="C126" s="14"/>
+      <c r="C126" s="7"/>
       <c r="D126" s="6"/>
     </row>
     <row r="127" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="14"/>
+      <c r="C127" s="7"/>
       <c r="D127" s="6"/>
     </row>
     <row r="128" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="14"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="6"/>
     </row>
     <row r="129" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
-      <c r="C129" s="14"/>
+      <c r="C129" s="7"/>
       <c r="D129" s="6"/>
     </row>
     <row r="130" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="14"/>
+      <c r="C130" s="7"/>
       <c r="D130" s="6"/>
     </row>
     <row r="131" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="14"/>
+      <c r="C131" s="7"/>
       <c r="D131" s="6"/>
     </row>
     <row r="132" s="1" customFormat="1" ht="37" customHeight="1" spans="1:4">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="14"/>
+      <c r="C132" s="7"/>
       <c r="D132" s="6"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="39" customHeight="1" spans="1:4">
       <c r="A133" s="9"/>
       <c r="B133" s="11"/>
-      <c r="C133" s="16"/>
+      <c r="C133" s="11"/>
       <c r="D133" s="9"/>
     </row>
     <row r="134" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
-      <c r="C134" s="14"/>
+      <c r="C134" s="7"/>
       <c r="D134" s="6"/>
     </row>
     <row r="135" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="14"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="6"/>
     </row>
     <row r="136" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
-      <c r="C136" s="14"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="6"/>
     </row>
     <row r="137" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="14"/>
+      <c r="C137" s="7"/>
       <c r="D137" s="6"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A138" s="9"/>
       <c r="B138" s="11"/>
-      <c r="C138" s="16"/>
+      <c r="C138" s="11"/>
       <c r="D138" s="9"/>
     </row>
     <row r="139" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="14"/>
+      <c r="C139" s="7"/>
       <c r="D139" s="6"/>
     </row>
     <row r="140" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
-      <c r="C140" s="14"/>
+      <c r="C140" s="7"/>
       <c r="D140" s="6"/>
     </row>
     <row r="141" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
-      <c r="C141" s="14"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="6"/>
     </row>
     <row r="142" s="1" customFormat="1" ht="29" customHeight="1" spans="1:4">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
-      <c r="C142" s="14"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="8"/>
     </row>
     <row r="143" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
-      <c r="C143" s="14"/>
+      <c r="C143" s="7"/>
       <c r="D143" s="12"/>
     </row>
     <row r="144" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="14"/>
+      <c r="C144" s="7"/>
       <c r="D144" s="12"/>
     </row>
     <row r="145" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="14"/>
+      <c r="C145" s="7"/>
       <c r="D145" s="12"/>
     </row>
     <row r="146" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
-      <c r="C146" s="14"/>
+      <c r="C146" s="7"/>
       <c r="D146" s="12"/>
     </row>
     <row r="147" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
-      <c r="C147" s="14"/>
+      <c r="C147" s="7"/>
       <c r="D147" s="12"/>
     </row>
     <row r="148" ht="34" customHeight="1"/>
@@ -2146,7 +2174,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2160,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -2169,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/leetCode/leetcode列表.xlsx
+++ b/leetCode/leetcode列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>题号</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">长度最小的子数组  </t>
     </r>
     <r>
@@ -128,6 +134,23 @@
     <t xml:space="preserve">滑动窗口法 </t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">无重复字符的最长子串  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+  </si>
+  <si>
+    <t>2022.5.02～5.03</t>
+  </si>
+  <si>
     <t>频率</t>
   </si>
   <si>
@@ -142,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -168,11 +191,48 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,15 +251,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -222,76 +319,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,13 +336,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
@@ -339,7 +362,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,13 +392,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +470,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,31 +506,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,103 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,8 +605,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,11 +635,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,30 +689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -681,148 +704,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,7 +1238,7 @@
   <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1307,11 +1330,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
+    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="29" customHeight="1" spans="1:4">
       <c r="A9" s="6"/>
@@ -2174,7 +2205,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2188,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -2197,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/leetCode/leetcode列表.xlsx
+++ b/leetCode/leetcode列表.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS!$A$1:$C$209</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目列表!$A$5:$D$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目列表!$A$4:$D$146</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>题号</t>
   </si>
@@ -33,7 +33,7 @@
     <t>其他/备注</t>
   </si>
   <si>
-    <t>数组</t>
+    <t>指针法</t>
   </si>
   <si>
     <r>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">无重复字符的最长子串  </t>
     </r>
     <r>
@@ -149,6 +155,29 @@
   </si>
   <si>
     <t>2022.5.02～5.03</t>
+  </si>
+  <si>
+    <t>set/map</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">两个数组的交集 II  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+  </si>
+  <si>
+    <t>2022.5.03～5.04</t>
+  </si>
+  <si>
+    <t>map / 双指针法</t>
   </si>
   <si>
     <t>频率</t>
@@ -166,9 +195,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -198,17 +227,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,8 +241,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,14 +259,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,11 +281,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,9 +350,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,59 +365,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,7 +391,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +511,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,157 +565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,22 +650,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,9 +687,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,28 +720,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,152 +739,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,6 +922,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1235,10 +1273,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1264,97 +1302,107 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="4"/>
+    <row r="2" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4">
+        <v>238</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
-      <c r="A4" s="4">
-        <v>238</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4"/>
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A4" s="6">
+        <v>75</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A5" s="6">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A6" s="6">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A7" s="6">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A8" s="6">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="29" customHeight="1" spans="1:4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="51" customHeight="1" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
+    <row r="8" s="1" customFormat="1" ht="29" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="A9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="A10" s="4">
+        <v>350</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A11" s="6"/>
@@ -1392,25 +1440,25 @@
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
+    <row r="17" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="45" customHeight="1" spans="1:4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="39" customHeight="1" spans="1:4">
+    <row r="18" s="2" customFormat="1" ht="45" customHeight="1" spans="1:4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="39" customHeight="1" spans="1:4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1506,19 +1554,19 @@
       <c r="C35" s="7"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="55" customHeight="1" spans="1:4">
+    <row r="36" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="55" customHeight="1" spans="1:4">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1536,7 +1584,7 @@
       <c r="C40" s="7"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+    <row r="41" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1554,49 +1602,49 @@
       <c r="C43" s="7"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
+    <row r="44" s="1" customFormat="1" ht="67" customHeight="1" spans="1:4">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="67" customHeight="1" spans="1:4">
+    <row r="45" s="1" customFormat="1" ht="38" customHeight="1" spans="1:4">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="38" customHeight="1" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+    <row r="48" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
+    <row r="49" s="1" customFormat="1" ht="60" customHeight="1" spans="1:4">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="60" customHeight="1" spans="1:4">
+    <row r="50" s="1" customFormat="1" ht="94" customHeight="1" spans="1:4">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="94" customHeight="1" spans="1:4">
+    <row r="51" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1656,25 +1704,25 @@
       <c r="C60" s="7"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+    <row r="61" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
-      <c r="A63" s="9"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+    <row r="62" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="A62" s="9"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -1722,13 +1770,13 @@
       <c r="C71" s="7"/>
       <c r="D71" s="6"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+    <row r="72" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
+    <row r="73" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1752,23 +1800,23 @@
       <c r="C76" s="7"/>
       <c r="D76" s="6"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+    <row r="77" s="1" customFormat="1" ht="42" customHeight="1" spans="1:4">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="6"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="48" customHeight="1" spans="1:4">
-      <c r="A79" s="9"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="9"/>
+    <row r="78" s="2" customFormat="1" ht="48" customHeight="1" spans="1:4">
+      <c r="A78" s="9"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A80" s="6"/>
@@ -1776,23 +1824,23 @@
       <c r="C80" s="7"/>
       <c r="D80" s="6"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+    <row r="81" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="6"/>
     </row>
-    <row r="82" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A82" s="6"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
-      <c r="A83" s="9"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="9"/>
+    <row r="82" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="A82" s="9"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="6"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A84" s="6"/>
@@ -1926,17 +1974,17 @@
       <c r="C105" s="7"/>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A106" s="6"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" s="2" customFormat="1" ht="41" customHeight="1" spans="1:4">
-      <c r="A107" s="9"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="9"/>
+    <row r="106" s="2" customFormat="1" ht="41" customHeight="1" spans="1:4">
+      <c r="A106" s="9"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="9"/>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A107" s="6"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="6"/>
     </row>
     <row r="108" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A108" s="6"/>
@@ -1974,17 +2022,17 @@
       <c r="C113" s="7"/>
       <c r="D113" s="6"/>
     </row>
-    <row r="114" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A114" s="6"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115" s="2" customFormat="1" ht="41" customHeight="1" spans="1:4">
-      <c r="A115" s="9"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="9"/>
+    <row r="114" s="2" customFormat="1" ht="41" customHeight="1" spans="1:4">
+      <c r="A114" s="9"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="9"/>
+    </row>
+    <row r="115" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="A115" s="6"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="6"/>
     </row>
     <row r="116" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A116" s="6"/>
@@ -1992,13 +2040,13 @@
       <c r="C116" s="7"/>
       <c r="D116" s="6"/>
     </row>
-    <row r="117" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+    <row r="117" s="1" customFormat="1" ht="53" customHeight="1" spans="1:4">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="6"/>
     </row>
-    <row r="118" s="1" customFormat="1" ht="53" customHeight="1" spans="1:4">
+    <row r="118" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -2076,23 +2124,23 @@
       <c r="C130" s="7"/>
       <c r="D130" s="6"/>
     </row>
-    <row r="131" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+    <row r="131" s="1" customFormat="1" ht="37" customHeight="1" spans="1:4">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="132" s="1" customFormat="1" ht="37" customHeight="1" spans="1:4">
-      <c r="A132" s="6"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" s="2" customFormat="1" ht="39" customHeight="1" spans="1:4">
-      <c r="A133" s="9"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="9"/>
+    <row r="132" s="2" customFormat="1" ht="39" customHeight="1" spans="1:4">
+      <c r="A132" s="9"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="9"/>
+    </row>
+    <row r="133" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
+      <c r="A133" s="6"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="6"/>
     </row>
     <row r="134" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
       <c r="A134" s="6"/>
@@ -2112,17 +2160,17 @@
       <c r="C136" s="7"/>
       <c r="D136" s="6"/>
     </row>
-    <row r="137" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
-      <c r="A137" s="6"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="6"/>
-    </row>
-    <row r="138" s="2" customFormat="1" ht="43" customHeight="1" spans="1:4">
-      <c r="A138" s="9"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="9"/>
+    <row r="137" s="2" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="A137" s="9"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="9"/>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A138" s="6"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="6"/>
     </row>
     <row r="139" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A139" s="6"/>
@@ -2136,17 +2184,17 @@
       <c r="C140" s="7"/>
       <c r="D140" s="6"/>
     </row>
-    <row r="141" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+    <row r="141" s="1" customFormat="1" ht="29" customHeight="1" spans="1:4">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
-      <c r="D141" s="6"/>
-    </row>
-    <row r="142" s="1" customFormat="1" ht="29" customHeight="1" spans="1:4">
+      <c r="D141" s="8"/>
+    </row>
+    <row r="142" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
-      <c r="D142" s="8"/>
+      <c r="D142" s="12"/>
     </row>
     <row r="143" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A143" s="6"/>
@@ -2172,13 +2220,7 @@
       <c r="C146" s="7"/>
       <c r="D146" s="12"/>
     </row>
-    <row r="147" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
-      <c r="A147" s="6"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="12"/>
-    </row>
-    <row r="148" ht="34" customHeight="1"/>
+    <row r="147" ht="34" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2205,7 +2247,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2219,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -2228,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/leetCode/leetcode列表.xlsx
+++ b/leetCode/leetcode列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>题号</t>
   </si>
@@ -131,7 +131,7 @@
     <t>2022.4.25～5.02</t>
   </si>
   <si>
-    <t xml:space="preserve">滑动窗口法 </t>
+    <t xml:space="preserve">7天 ==&gt; 滑动窗口法 </t>
   </si>
   <si>
     <r>
@@ -157,10 +157,19 @@
     <t>2022.5.02～5.03</t>
   </si>
   <si>
+    <t xml:space="preserve">滑动窗口法 </t>
+  </si>
+  <si>
     <t>set/map</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">两个数组的交集 II  </t>
     </r>
     <r>
@@ -180,6 +189,26 @@
     <t>map / 双指针法</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">根据字符出现频率排序  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+  </si>
+  <si>
+    <t>2022.5.06～5.06</t>
+  </si>
+  <si>
+    <t>map / 桶排序</t>
+  </si>
+  <si>
     <t>频率</t>
   </si>
   <si>
@@ -194,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -228,14 +257,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,17 +302,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,7 +325,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +333,21 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -291,25 +364,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,43 +386,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,7 +426,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,49 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,31 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,73 +582,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +679,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,41 +750,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -719,165 +763,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1275,8 +1304,8 @@
   <sheetPr/>
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1373,7 +1402,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="29" customHeight="1" spans="1:4">
@@ -1384,7 +1413,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1395,20 +1424,28 @@
         <v>350</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="A11" s="4">
+        <v>451</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A12" s="6"/>
@@ -2247,7 +2284,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2261,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -2270,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/leetCode/leetcode列表.xlsx
+++ b/leetCode/leetcode列表.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS!$A$1:$C$209</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目列表!$A$4:$D$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目列表!$A$4:$F$146</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>题号</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>时间</t>
+  </si>
+  <si>
+    <t>考察频率</t>
+  </si>
+  <si>
+    <t>掌握次数</t>
   </si>
   <si>
     <t>其他/备注</t>
@@ -59,6 +65,12 @@
     <t>2022.4.19～4.19</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -82,6 +94,9 @@
     <t>2022.4.22～4.23</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -131,6 +146,9 @@
     <t>2022.4.25～5.02</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t xml:space="preserve">7天 ==&gt; 滑动窗口法 </t>
   </si>
   <si>
@@ -157,6 +175,9 @@
     <t>2022.5.02～5.03</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
     <t xml:space="preserve">滑动窗口法 </t>
   </si>
   <si>
@@ -190,6 +211,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">根据字符出现频率排序  </t>
     </r>
     <r>
@@ -209,6 +236,32 @@
     <t>map / 桶排序</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">两数之和  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+  </si>
+  <si>
+    <t>2022.5.09～5.09</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
     <t>频率</t>
   </si>
   <si>
@@ -223,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -250,7 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,23 +317,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,14 +342,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,18 +401,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,48 +439,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,13 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +521,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,31 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,97 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,17 +722,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,34 +776,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,17 +806,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,152 +821,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,7 +1006,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,22 +1370,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="19.3846153846154" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.1153846153846" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61.2211538461538" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="17.9519230769231" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.2307692307692" style="13" customWidth="1"/>
+    <col min="6" max="6" width="61.2211538461538" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1327,935 +1397,1271 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
-      <c r="A2" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A3" s="4">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A4" s="6">
         <v>75</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A5" s="6">
         <v>167</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="E5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A6" s="6">
         <v>209</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="29" customHeight="1" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
-      <c r="A9" s="13" t="s">
-        <v>18</v>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A10" s="4">
         <v>350</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A11" s="4">
         <v>451</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="45" customHeight="1" spans="1:4">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="45" customHeight="1" spans="1:6">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="39" customHeight="1" spans="1:4">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="55" customHeight="1" spans="1:4">
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="67" customHeight="1" spans="1:4">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="67" customHeight="1" spans="1:6">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="38" customHeight="1" spans="1:4">
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="38" customHeight="1" spans="1:6">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="60" customHeight="1" spans="1:4">
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="60" customHeight="1" spans="1:6">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="94" customHeight="1" spans="1:4">
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="94" customHeight="1" spans="1:6">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A62" s="9"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="48" customHeight="1" spans="1:4">
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" s="2" customFormat="1" ht="48" customHeight="1" spans="1:6">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" s="2" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A82" s="9"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
-      <c r="D82" s="9"/>
-    </row>
-    <row r="83" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" s="2" customFormat="1" ht="41" customHeight="1" spans="1:4">
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
-      <c r="D106" s="9"/>
-    </row>
-    <row r="107" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="9"/>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="6"/>
+    </row>
+    <row r="108" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
-      <c r="D109" s="6"/>
-    </row>
-    <row r="110" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
-      <c r="D110" s="6"/>
-    </row>
-    <row r="111" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
-      <c r="D111" s="6"/>
-    </row>
-    <row r="112" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
-      <c r="D112" s="6"/>
-    </row>
-    <row r="113" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
-      <c r="D113" s="6"/>
-    </row>
-    <row r="114" s="2" customFormat="1" ht="41" customHeight="1" spans="1:4">
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A114" s="9"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
-      <c r="D114" s="9"/>
-    </row>
-    <row r="115" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="9"/>
+    </row>
+    <row r="115" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
-      <c r="D115" s="6"/>
-    </row>
-    <row r="116" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
-      <c r="D116" s="6"/>
-    </row>
-    <row r="117" s="1" customFormat="1" ht="53" customHeight="1" spans="1:4">
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="6"/>
+    </row>
+    <row r="117" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
-      <c r="D117" s="6"/>
-    </row>
-    <row r="118" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
-      <c r="D118" s="6"/>
-    </row>
-    <row r="119" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
-      <c r="D119" s="6"/>
-    </row>
-    <row r="120" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
-      <c r="D120" s="6"/>
-    </row>
-    <row r="121" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="6"/>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
-      <c r="D121" s="6"/>
-    </row>
-    <row r="122" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
-      <c r="D122" s="6"/>
-    </row>
-    <row r="123" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
-      <c r="D123" s="6"/>
-    </row>
-    <row r="124" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
-      <c r="D124" s="6"/>
-    </row>
-    <row r="125" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
-      <c r="D125" s="6"/>
-    </row>
-    <row r="126" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
-      <c r="D126" s="6"/>
-    </row>
-    <row r="127" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
-      <c r="D127" s="6"/>
-    </row>
-    <row r="128" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
-      <c r="D128" s="6"/>
-    </row>
-    <row r="129" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
-      <c r="D129" s="6"/>
-    </row>
-    <row r="130" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" s="1" customFormat="1" ht="37" customHeight="1" spans="1:4">
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="6"/>
+    </row>
+    <row r="131" s="1" customFormat="1" ht="37" customHeight="1" spans="1:6">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
-      <c r="D131" s="6"/>
-    </row>
-    <row r="132" s="2" customFormat="1" ht="39" customHeight="1" spans="1:4">
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132" s="2" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A132" s="9"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
-      <c r="D132" s="9"/>
-    </row>
-    <row r="133" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="9"/>
+    </row>
+    <row r="133" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
-      <c r="D133" s="6"/>
-    </row>
-    <row r="134" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="6"/>
+    </row>
+    <row r="134" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
-      <c r="D134" s="6"/>
-    </row>
-    <row r="135" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="6"/>
+    </row>
+    <row r="135" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
-      <c r="D135" s="6"/>
-    </row>
-    <row r="136" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
-      <c r="D136" s="6"/>
-    </row>
-    <row r="137" s="2" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="6"/>
+    </row>
+    <row r="137" s="2" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A137" s="9"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
-      <c r="D137" s="9"/>
-    </row>
-    <row r="138" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="9"/>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
-      <c r="D138" s="6"/>
-    </row>
-    <row r="139" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="6"/>
+    </row>
+    <row r="139" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
-      <c r="D139" s="6"/>
-    </row>
-    <row r="140" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="6"/>
+    </row>
+    <row r="140" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
-      <c r="D140" s="6"/>
-    </row>
-    <row r="141" s="1" customFormat="1" ht="29" customHeight="1" spans="1:4">
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="6"/>
+    </row>
+    <row r="141" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
-      <c r="D141" s="8"/>
-    </row>
-    <row r="142" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="8"/>
+    </row>
+    <row r="142" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
-      <c r="D142" s="12"/>
-    </row>
-    <row r="143" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="12"/>
+    </row>
+    <row r="143" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
-      <c r="D143" s="12"/>
-    </row>
-    <row r="144" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="12"/>
+    </row>
+    <row r="144" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
-      <c r="D144" s="12"/>
-    </row>
-    <row r="145" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="12"/>
+    </row>
+    <row r="145" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
-      <c r="D145" s="12"/>
-    </row>
-    <row r="146" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="12"/>
+    </row>
+    <row r="146" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
-      <c r="D146" s="12"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="12"/>
     </row>
     <row r="147" ht="34" customHeight="1"/>
   </sheetData>
@@ -2284,13 +2690,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -2298,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -2307,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/leetCode/leetcode列表.xlsx
+++ b/leetCode/leetcode列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>题号</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">两数之和  </t>
     </r>
     <r>
@@ -262,6 +268,46 @@
     <t>map</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">四数相加 II  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+  </si>
+  <si>
+    <t>2022.5.12～5.12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">回旋镖的数量 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+  </si>
+  <si>
+    <t>2022.5.17～5.17</t>
+  </si>
+  <si>
     <t>频率</t>
   </si>
   <si>
@@ -277,9 +323,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -303,14 +349,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,9 +363,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,24 +409,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,7 +433,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,14 +441,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,16 +454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,14 +469,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -439,8 +476,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,19 +525,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +585,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,19 +645,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,103 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,8 +768,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,21 +819,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -773,20 +833,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,164 +862,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1372,8 +1418,8 @@
   <sheetPr/>
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1591,21 +1637,45 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="6"/>
+    <row r="13" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A13" s="4">
+        <v>454</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A14" s="4">
+        <v>447</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A15" s="6"/>
@@ -2690,7 +2760,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2704,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -2713,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/leetCode/leetcode列表.xlsx
+++ b/leetCode/leetcode列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>题号</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">回旋镖的数量 </t>
     </r>
     <r>
@@ -308,6 +314,26 @@
     <t>2022.5.17～5.17</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">存在重复元素 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+  </si>
+  <si>
+    <t>2022.5.30～5.30</t>
+  </si>
+  <si>
+    <t>map/set</t>
+  </si>
+  <si>
     <t>频率</t>
   </si>
   <si>
@@ -322,10 +348,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -355,24 +381,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,25 +426,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,7 +444,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,7 +452,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,23 +502,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,14 +513,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,7 +551,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,25 +647,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,13 +701,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,109 +719,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,11 +800,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,17 +819,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -818,17 +839,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,165 +888,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1419,7 +1445,7 @@
   <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1677,13 +1703,25 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="6"/>
+    <row r="15" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A15" s="4">
+        <v>217</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A16" s="6"/>
@@ -2760,7 +2798,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2774,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -2783,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/leetCode/leetcode列表.xlsx
+++ b/leetCode/leetcode列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>题号</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">存在重复元素 </t>
     </r>
     <r>
@@ -334,6 +340,26 @@
     <t>map/set</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">存在重复元素2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+  </si>
+  <si>
+    <t>2022.6.01～6.01</t>
+  </si>
+  <si>
+    <t>map/set + 滑动窗口</t>
+  </si>
+  <si>
     <t>频率</t>
   </si>
   <si>
@@ -348,10 +374,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -375,14 +401,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,25 +430,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,8 +453,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -435,7 +469,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -459,22 +493,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,23 +523,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,13 +583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,13 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +637,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,13 +661,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,25 +709,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,25 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,37 +745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,30 +820,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -854,11 +856,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,17 +882,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,94 +919,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,52 +1015,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1445,7 +1471,7 @@
   <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1723,13 +1749,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="6"/>
+    <row r="16" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A16" s="4">
+        <v>219</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A17" s="6"/>
@@ -2798,7 +2836,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2812,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -2821,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/leetCode/leetcode列表.xlsx
+++ b/leetCode/leetcode列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28380" windowHeight="9980"/>
+    <workbookView windowWidth="26840" windowHeight="9980"/>
   </bookViews>
   <sheets>
     <sheet name="题目列表" sheetId="12" r:id="rId1"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS!$A$1:$C$209</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目列表!$A$4:$F$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目列表!$A$4:$F$145</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>题号</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">存在重复元素2 </t>
     </r>
     <r>
@@ -360,6 +366,55 @@
     <t>map/set + 滑动窗口</t>
   </si>
   <si>
+    <t>链表</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">反转链表  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+  </si>
+  <si>
+    <t>2022.6.13～6.14</t>
+  </si>
+  <si>
+    <t>递归</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">反转链表2  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+  </si>
+  <si>
+    <t>2022.6.15～6.16</t>
+  </si>
+  <si>
+    <t>头插法+ 局部反转法 + 递归</t>
+  </si>
+  <si>
     <t>频率</t>
   </si>
   <si>
@@ -374,10 +429,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -401,22 +456,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,41 +485,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,16 +523,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,38 +592,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,7 +644,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,13 +662,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,13 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,19 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,91 +800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,7 +875,57 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -836,21 +941,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -873,194 +963,159 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1468,10 +1523,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1778,28 +1833,54 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="6"/>
+    <row r="19" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A19" s="4">
+        <v>206</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A20" s="4">
+        <v>92</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A21" s="6"/>
@@ -1913,23 +1994,23 @@
       <c r="E34" s="16"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
+    <row r="35" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1953,7 +2034,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+    <row r="40" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1977,7 +2058,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
+    <row r="43" s="1" customFormat="1" ht="67" customHeight="1" spans="1:6">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1985,7 +2066,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="67" customHeight="1" spans="1:6">
+    <row r="44" s="1" customFormat="1" ht="38" customHeight="1" spans="1:6">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1993,7 +2074,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="38" customHeight="1" spans="1:6">
+    <row r="45" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2001,7 +2082,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
+    <row r="46" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2009,7 +2090,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
+    <row r="47" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2017,7 +2098,7 @@
       <c r="E47" s="16"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
+    <row r="48" s="1" customFormat="1" ht="60" customHeight="1" spans="1:6">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2025,7 +2106,7 @@
       <c r="E48" s="16"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="60" customHeight="1" spans="1:6">
+    <row r="49" s="1" customFormat="1" ht="94" customHeight="1" spans="1:6">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2033,7 +2114,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="94" customHeight="1" spans="1:6">
+    <row r="50" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2113,7 +2194,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+    <row r="60" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2121,23 +2202,23 @@
       <c r="E60" s="16"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
-      <c r="A62" s="9"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="9"/>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+    <row r="61" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
+      <c r="A61" s="9"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2201,7 +2282,7 @@
       <c r="E70" s="16"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="71" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2209,7 +2290,7 @@
       <c r="E71" s="16"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="72" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2241,7 +2322,7 @@
       <c r="E75" s="16"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="76" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2249,21 +2330,21 @@
       <c r="E76" s="16"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="48" customHeight="1" spans="1:6">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="9"/>
+    <row r="77" s="2" customFormat="1" ht="48" customHeight="1" spans="1:6">
+      <c r="A77" s="9"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="6"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A79" s="6"/>
@@ -2273,7 +2354,7 @@
       <c r="E79" s="16"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+    <row r="80" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -2281,21 +2362,21 @@
       <c r="E80" s="16"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
-      <c r="A82" s="9"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="9"/>
+    <row r="81" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
+      <c r="A81" s="9"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="6"/>
     </row>
     <row r="83" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A83" s="6"/>
@@ -2473,21 +2554,21 @@
       <c r="E104" s="16"/>
       <c r="F104" s="6"/>
     </row>
-    <row r="105" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="6"/>
-    </row>
-    <row r="106" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
-      <c r="A106" s="9"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="9"/>
+    <row r="105" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
+      <c r="A105" s="9"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A106" s="6"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="6"/>
     </row>
     <row r="107" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A107" s="6"/>
@@ -2537,21 +2618,21 @@
       <c r="E112" s="16"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A113" s="6"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="6"/>
-    </row>
-    <row r="114" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
-      <c r="A114" s="9"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="9"/>
+    <row r="113" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
+      <c r="A113" s="9"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="9"/>
+    </row>
+    <row r="114" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+      <c r="A114" s="6"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="6"/>
     </row>
     <row r="115" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A115" s="6"/>
@@ -2561,7 +2642,7 @@
       <c r="E115" s="16"/>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+    <row r="116" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -2569,7 +2650,7 @@
       <c r="E116" s="16"/>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
+    <row r="117" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -2673,7 +2754,7 @@
       <c r="E129" s="16"/>
       <c r="F129" s="6"/>
     </row>
-    <row r="130" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+    <row r="130" s="1" customFormat="1" ht="37" customHeight="1" spans="1:6">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -2681,21 +2762,21 @@
       <c r="E130" s="16"/>
       <c r="F130" s="6"/>
     </row>
-    <row r="131" s="1" customFormat="1" ht="37" customHeight="1" spans="1:6">
-      <c r="A131" s="6"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
-      <c r="F131" s="6"/>
-    </row>
-    <row r="132" s="2" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A132" s="9"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="9"/>
+    <row r="131" s="2" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A131" s="9"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="9"/>
+    </row>
+    <row r="132" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A132" s="6"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="6"/>
     </row>
     <row r="133" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A133" s="6"/>
@@ -2721,21 +2802,21 @@
       <c r="E135" s="16"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A136" s="6"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="6"/>
-    </row>
-    <row r="137" s="2" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A137" s="9"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="9"/>
+    <row r="136" s="2" customFormat="1" ht="43" customHeight="1" spans="1:6">
+      <c r="A136" s="9"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="9"/>
+    </row>
+    <row r="137" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A137" s="6"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="6"/>
     </row>
     <row r="138" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A138" s="6"/>
@@ -2753,21 +2834,21 @@
       <c r="E139" s="16"/>
       <c r="F139" s="6"/>
     </row>
-    <row r="140" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="140" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
-      <c r="F140" s="6"/>
-    </row>
-    <row r="141" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="F140" s="8"/>
+    </row>
+    <row r="141" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
       <c r="D141" s="16"/>
       <c r="E141" s="16"/>
-      <c r="F141" s="8"/>
+      <c r="F141" s="12"/>
     </row>
     <row r="142" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A142" s="6"/>
@@ -2801,15 +2882,7 @@
       <c r="E145" s="16"/>
       <c r="F145" s="12"/>
     </row>
-    <row r="146" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A146" s="6"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="12"/>
-    </row>
-    <row r="147" ht="34" customHeight="1"/>
+    <row r="146" ht="34" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2836,7 +2909,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2850,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -2859,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C3" s="6"/>
     </row>
